--- a/1  临时/手机尺寸.xlsx
+++ b/1  临时/手机尺寸.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="160x128" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>长/mm</t>
   </si>
@@ -23,6 +24,14 @@
   </si>
   <si>
     <t>寸</t>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:22 am</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -65,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +484,102 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <f>+B3+C2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>22+2</f>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f>+B4+C3</f>
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <f>17+23*4+12+17+2+2*10</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B7" si="0">22+2</f>
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C7" si="1">+B5+C4</f>
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <f>160-130</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <f>+B7+C6</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <f>+B10+C9</f>
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>